--- a/tables/spreadsheet_not_found.xlsx
+++ b/tables/spreadsheet_not_found.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="90">
   <si>
     <t>index</t>
   </si>
@@ -37,21 +37,6 @@
     <t>doc_id</t>
   </si>
   <si>
-    <t>Holmes, I., Kirby, K.R., Potvin, C.</t>
-  </si>
-  <si>
-    <t>Xiaoming Feng, Bojie Fu, Shilong Piao, Shuai Wang, Philippe Ciais, Zhenzhong Zeng, Yihe Lü, Yuan Zeng, Yue Li, Xiaohui Jiang &amp; Bingfang Wu</t>
-  </si>
-  <si>
-    <t>Xiao, JF</t>
-  </si>
-  <si>
-    <t>Arora, VK, Montenegro, A</t>
-  </si>
-  <si>
-    <t>Lenton, TM</t>
-  </si>
-  <si>
     <t>Xu, B, Guo, ZD, Piao, SL, Fang, JY</t>
   </si>
   <si>
@@ -70,9 +55,6 @@
     <t>Sohngen, B, Mendelsohn, R</t>
   </si>
   <si>
-    <t>Karnosky, D.F., Sharma, P., Thakur, R.C., Kinouchi, M., King, J., Kubiske, M.E., Birdsey, R.A.</t>
-  </si>
-  <si>
     <t>Stavins and Richards</t>
   </si>
   <si>
@@ -100,16 +82,16 @@
     <t>Shi, J., Liu, J., Gao, Z., Cui, L. (2005) A review on the influence of afforestation on soil carbon storage</t>
   </si>
   <si>
-    <t>Gupta, S., Struyk, A., Gilbert, D. (2011) Carbon sequestration from waste through conversion to charcoal: Equipment for a small-scale operation</t>
-  </si>
-  <si>
     <t>Si, J., Jia, L.-M., Wei, Y.-K., Xing, C.-S., Liu, S.-Q., Guo, Z.-X. (2012) Carbon storage in fast-growing and high-yield poplar plantations under subsurface drip irrigation</t>
   </si>
   <si>
     <t>Ahamer</t>
   </si>
   <si>
-    <t>Nordstrm, E.-M.</t>
+    <t>Gross, R.; Slade and Bauen</t>
+  </si>
+  <si>
+    <t>Hoogwijk, M; Hoogwijk, M; Faaij, A; de Vries, B; Turkenburg, W</t>
   </si>
   <si>
     <t>Rogner et al</t>
@@ -127,10 +109,7 @@
     <t>Cornelissen et al</t>
   </si>
   <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>Dooley, J.J.; Dahowski, R.T.; Davidson, C.L.; Bachu, S.; Gupta, N.; Gale, J.</t>
+    <t>Haberl et al</t>
   </si>
   <si>
     <t>Ormerod</t>
@@ -139,30 +118,9 @@
     <t>Vangkilde-Peterson et al</t>
   </si>
   <si>
-    <t>Shogenova, A.; Shogenov, K.; Vahera, R.; Ivask, J.; Sliaupa, S.; Vangkilde-Pedersen, T.; Uibue, M.; Kuusik, R.</t>
-  </si>
-  <si>
-    <t>Anthonsen, K.L.; Aagaard, P.; Bergmo, P.E.S.; ErlstrÃ¶m, M.; Fareide, J.I.; Gislason, S.R.; Mortensen, G.M.; SnÃ¦bjÃ¶rnsdottir, S.Ã“.</t>
-  </si>
-  <si>
-    <t>Wildenborg, T.; Gale, J.; Hendriks, C.; Holloway, S.; Brandsma, R.; Kreft, E.; Lokhorst, A.</t>
-  </si>
-  <si>
-    <t>Wright, R.; Mourits, F.; RodrÃ­guez, L.B.; Serrano, M.D.</t>
-  </si>
-  <si>
     <t>HENDRIKS, CA; BLOK, K</t>
   </si>
   <si>
-    <t>Li, X.; Wei, N.; Liu, Y.; Fang, Z.; Dahowski, R.T.; Davidson, C.L.</t>
-  </si>
-  <si>
-    <t>Movagharnejad, K; Emamgholivand, A; Mousavi, H; Kordkheili, MS</t>
-  </si>
-  <si>
-    <t>Godec, M.; Koperna, G.; Gale, J.</t>
-  </si>
-  <si>
     <t>IEAGHG - PH3-22</t>
   </si>
   <si>
@@ -181,54 +139,15 @@
     <t>Gunter, Wong, Cheel, Sjostrom</t>
   </si>
   <si>
-    <t>Holloway, S.; Garg, A.; Kapshe, M.; Deshpande, A.; Pracha, A.S.; Khan, S.R.; Mahmood, M.A.; Singh, T.N.; Kirk, K.L.; Gale, J.</t>
-  </si>
-  <si>
     <t>Koide et al</t>
   </si>
   <si>
-    <t>Grimston, MC; Karakoussis, V; Fouquet, R; van der Vorst, R; Pearson, P; Leach, M</t>
-  </si>
-  <si>
     <t>IPCC</t>
   </si>
   <si>
     <t>Bentham, M; Kirby, G</t>
   </si>
   <si>
-    <t>Shogenova, A.; Sliaupa, S.; Shogenov, K.; Vaher, R.; Sliaupiene, R.</t>
-  </si>
-  <si>
-    <t>Shogenova, A; Sliaupa, S; Sliaupa, S; Vaher, R; Shogenov, K; Pomeranceva, R</t>
-  </si>
-  <si>
-    <t>Gale</t>
-  </si>
-  <si>
-    <t>Dahowski, R.T.; Dooley, J.J.; Davidson, C.L.; Mahasenan, N.</t>
-  </si>
-  <si>
-    <t>Holler, S.; Viebahn, P.</t>
-  </si>
-  <si>
-    <t>Aktouf, A; Bentellis, A</t>
-  </si>
-  <si>
-    <t>Agroforestry within REDD+: experiences of an indigenous EmberÃ¡ community in Panama</t>
-  </si>
-  <si>
-    <t>Revegetation in China's Loess Plateau is approaching sustainable water resource limits</t>
-  </si>
-  <si>
-    <t>Satellite evidence for significant biophysical consequences of the "Grain for Green" Program on the Loess Plateau in China</t>
-  </si>
-  <si>
-    <t>Small temperature benefits provided by realistic afforestation efforts</t>
-  </si>
-  <si>
-    <t>The potential for land-based biological CO2 removal to lower future atmospheric CO2 concentration</t>
-  </si>
-  <si>
     <t>Biomass carbon stocks in China’s forests between 2000 and 2050: A prediction based on forest biomass-age relationships</t>
   </si>
   <si>
@@ -247,9 +166,6 @@
     <t>An Optimal Control Model of Forest Carbon Sequestration</t>
   </si>
   <si>
-    <t>Changing atmospheric carbon dioxide: A threat or benefit?</t>
-  </si>
-  <si>
     <t>The cost of U.S. forest-based carbon sequestration</t>
   </si>
   <si>
@@ -277,16 +193,16 @@
     <t>http://dx.doi.org/None</t>
   </si>
   <si>
-    <t>https://doi.org/10.2118/136887-PA</t>
-  </si>
-  <si>
     <t>https://www.cabdirect.org/cabdirect/abstract/20123156780</t>
   </si>
   <si>
     <t>Biomass energy production: the Global Potential and the Net Influence on the CO2 Concentration</t>
   </si>
   <si>
-    <t>Bioenergy futures: A global outlook on the implications of land use for forest-based feedstock production</t>
+    <t>Global bioenergy resources</t>
+  </si>
+  <si>
+    <t>Exploration of regional and global cost-supply curves of biomass energy from short-rotation crops at abandoned cropland and rest land under four IPCC SRES land-use scenarios</t>
   </si>
   <si>
     <t>Chapter 7 - energy resources and potentials. In: Global Energy assessment - Toward a Sustainable future</t>
@@ -304,45 +220,18 @@
     <t>the role of bioenergy in a fully sustainable global energy system</t>
   </si>
   <si>
-    <t>Global bioenergy capacity as constrained by observed biospheric productivity rates</t>
-  </si>
-  <si>
-    <t>A CO2-storage supply curve for North America and its implications for the deployment of carbon dioxide capture and storage systems</t>
+    <t>Bioenergy: how much can we expect for 2050?</t>
   </si>
   <si>
     <t>An Overview of large scale CO2 disposal options</t>
   </si>
   <si>
-    <t>Assessing European capacity for geological storage of carbon dioxide-the EU GeoCapacity project</t>
-  </si>
-  <si>
-    <t>CO2 geological storage capacity analysis in Estonia and neighbouring regions</t>
-  </si>
-  <si>
-    <t>CO2 storage potential in the Nordic region</t>
-  </si>
-  <si>
-    <t>Cost curves for CO2 storage: European sector</t>
-  </si>
-  <si>
     <t>GeoCapacity Final Report Assessing European Capacity for Geological Storage of Carbon dioxide</t>
   </si>
   <si>
-    <t>The first North American carbon storage atlas</t>
-  </si>
-  <si>
     <t>UNDERGROUND-STORAGE OF CARBON-DIOXIDE</t>
   </si>
   <si>
-    <t>CO2 point emission and geological storage capacity in China</t>
-  </si>
-  <si>
-    <t>Preliminary country-scale assessment of carbon dioxide storage potential in Iran</t>
-  </si>
-  <si>
-    <t>CO2-ECBM: A review of its status and global potential</t>
-  </si>
-  <si>
     <t>Barriers to overcome the implementation of CO2 capture and storage - Storage in disused oil and gas fields</t>
   </si>
   <si>
@@ -361,37 +250,13 @@
     <t>Large CO2 Sinks: Their role in the mitigation of greenhouse gases from an international, national (Canadian) and provincial (Alberta) perspective</t>
   </si>
   <si>
-    <t>An assessment of the CO2 storage potential of the Indian subcontinent</t>
-  </si>
-  <si>
     <t>Subterranean containment and long-term storage of carbon dioxide in unused aquifers and in depleted natural gas reservoirs</t>
   </si>
   <si>
-    <t>The European and global potential of carbon dioxide sequestration in tackling climate change</t>
-  </si>
-  <si>
     <t>Underground Geological Storage in SRCCS</t>
   </si>
   <si>
     <t>CO2 storage in saline aquifers</t>
-  </si>
-  <si>
-    <t>Geological storage of CO2 - Prospects in the Baltic States</t>
-  </si>
-  <si>
-    <t>The Baltic Basin: structure, properties of reservoir rocks, and capacity for geological storage of CO2</t>
-  </si>
-  <si>
-    <t>Using coal seams for CO2 sequestration. Geologica Belgica,</t>
-  </si>
-  <si>
-    <t>Regional differences in carbon dioxide capture and storage markets within the United States</t>
-  </si>
-  <si>
-    <t>Assessment of CO2 storage capacity in geological formations of Germany and Northern Europe</t>
-  </si>
-  <si>
-    <t>CO2-storage assessment and effective capacity in Algeria</t>
   </si>
   <si>
     <t>Afforestation and Reforestation</t>
@@ -785,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -819,25 +684,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -845,25 +710,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -871,25 +736,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="C4">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -897,25 +762,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>108</v>
+        <v>196</v>
       </c>
       <c r="C5">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -923,25 +788,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>128</v>
+        <v>213</v>
       </c>
       <c r="C6">
-        <v>130</v>
+        <v>219</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
       <c r="E6">
-        <v>2010</v>
+        <v>2003</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -949,25 +814,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>132</v>
+        <v>214</v>
       </c>
       <c r="C7">
-        <v>136</v>
+        <v>222</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7">
-        <v>2010</v>
+        <v>2003</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -975,25 +840,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>134</v>
+        <v>223</v>
       </c>
       <c r="C8">
-        <v>138</v>
+        <v>232</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
       <c r="E8">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1001,25 +866,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>150</v>
+        <v>239</v>
       </c>
       <c r="C9">
-        <v>154</v>
+        <v>248</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
       <c r="E9">
-        <v>2009</v>
+        <v>2000</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1027,25 +892,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>196</v>
+        <v>249</v>
       </c>
       <c r="C10">
-        <v>202</v>
+        <v>258</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10">
-        <v>2006</v>
+        <v>1996</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1053,25 +918,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>213</v>
+        <v>272</v>
       </c>
       <c r="C11">
-        <v>219</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11">
-        <v>2003</v>
-      </c>
-      <c r="F11" t="s">
-        <v>75</v>
+        <v>282</v>
       </c>
       <c r="G11" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1079,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>214</v>
+        <v>273</v>
       </c>
       <c r="C12">
-        <v>222</v>
+        <v>343</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>2003</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="G12" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1105,25 +961,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="C13">
-        <v>224</v>
+        <v>348</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13">
-        <v>2003</v>
+        <v>2011</v>
       </c>
       <c r="F13" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1131,25 +987,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>223</v>
+        <v>302</v>
       </c>
       <c r="C14">
-        <v>232</v>
+        <v>373</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14">
-        <v>2002</v>
+        <v>2017</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1157,25 +1013,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>239</v>
+        <v>304</v>
       </c>
       <c r="C15">
-        <v>248</v>
+        <v>375</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15">
-        <v>2000</v>
+        <v>1991</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1183,25 +1039,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>249</v>
+        <v>308</v>
       </c>
       <c r="C16">
-        <v>258</v>
+        <v>379</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16">
-        <v>1996</v>
+        <v>1991</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="G16" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1209,16 +1065,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>272</v>
+        <v>406</v>
       </c>
       <c r="C17">
-        <v>282</v>
+        <v>485</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>2005</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="G17" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1226,25 +1091,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>273</v>
+        <v>410</v>
       </c>
       <c r="C18">
-        <v>343</v>
+        <v>494</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
       <c r="E18">
-        <v>2003</v>
-      </c>
-      <c r="F18" t="s">
-        <v>81</v>
+        <v>2012</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="G18" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1252,25 +1117,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>278</v>
+        <v>785</v>
       </c>
       <c r="C19">
-        <v>348</v>
+        <v>934</v>
       </c>
       <c r="D19" t="s">
         <v>23</v>
       </c>
       <c r="E19">
-        <v>2011</v>
+        <v>1996</v>
       </c>
       <c r="F19" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="G19" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1278,25 +1143,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>302</v>
+        <v>792</v>
       </c>
       <c r="C20">
-        <v>373</v>
+        <v>942</v>
       </c>
       <c r="D20" t="s">
         <v>24</v>
       </c>
       <c r="E20">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="F20" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="G20" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1304,25 +1169,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>304</v>
+        <v>795</v>
       </c>
       <c r="C21">
-        <v>375</v>
+        <v>949</v>
       </c>
       <c r="D21" t="s">
         <v>25</v>
       </c>
       <c r="E21">
-        <v>1991</v>
+        <v>2009</v>
       </c>
       <c r="F21" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="G21" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1330,25 +1195,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>308</v>
+        <v>818</v>
       </c>
       <c r="C22">
-        <v>379</v>
+        <v>997</v>
       </c>
       <c r="D22" t="s">
         <v>26</v>
       </c>
       <c r="E22">
-        <v>1991</v>
+        <v>2012</v>
       </c>
       <c r="F22" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="G22" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1356,25 +1221,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>406</v>
+        <v>820</v>
       </c>
       <c r="C23">
-        <v>485</v>
+        <v>1001</v>
       </c>
       <c r="D23" t="s">
         <v>27</v>
       </c>
       <c r="E23">
-        <v>2005</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>86</v>
+        <v>2010</v>
+      </c>
+      <c r="F23" t="s">
+        <v>64</v>
       </c>
       <c r="G23" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1382,25 +1247,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>409</v>
+        <v>821</v>
       </c>
       <c r="C24">
-        <v>493</v>
+        <v>1005</v>
       </c>
       <c r="D24" t="s">
         <v>28</v>
       </c>
       <c r="E24">
-        <v>2011</v>
-      </c>
-      <c r="F24" s="2" t="s">
+        <v>1994</v>
+      </c>
+      <c r="F24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" t="s">
         <v>87</v>
       </c>
-      <c r="G24" t="s">
-        <v>131</v>
-      </c>
       <c r="H24" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1408,25 +1273,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>410</v>
+        <v>822</v>
       </c>
       <c r="C25">
-        <v>494</v>
+        <v>1006</v>
       </c>
       <c r="D25" t="s">
         <v>29</v>
       </c>
       <c r="E25">
-        <v>2012</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>88</v>
+        <v>2004</v>
+      </c>
+      <c r="F25" t="s">
+        <v>66</v>
       </c>
       <c r="G25" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1434,25 +1299,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>785</v>
+        <v>823</v>
       </c>
       <c r="C26">
-        <v>934</v>
+        <v>1007</v>
       </c>
       <c r="D26" t="s">
         <v>30</v>
       </c>
       <c r="E26">
-        <v>1996</v>
+        <v>2012</v>
       </c>
       <c r="F26" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="G26" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1460,25 +1325,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>787</v>
+        <v>824</v>
       </c>
       <c r="C27">
-        <v>937</v>
+        <v>1013</v>
       </c>
       <c r="D27" t="s">
         <v>31</v>
       </c>
       <c r="E27">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="F27" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="G27" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1486,25 +1351,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>818</v>
+        <v>831</v>
       </c>
       <c r="C28">
-        <v>997</v>
+        <v>1034</v>
       </c>
       <c r="D28" t="s">
         <v>32</v>
       </c>
       <c r="E28">
-        <v>2012</v>
+        <v>1993</v>
       </c>
       <c r="F28" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="G28" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1512,25 +1377,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>820</v>
+        <v>837</v>
       </c>
       <c r="C29">
-        <v>1001</v>
+        <v>1056</v>
       </c>
       <c r="D29" t="s">
         <v>33</v>
       </c>
       <c r="E29">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="F29" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="G29" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1538,25 +1403,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>821</v>
+        <v>839</v>
       </c>
       <c r="C30">
-        <v>1005</v>
+        <v>1060</v>
       </c>
       <c r="D30" t="s">
         <v>34</v>
       </c>
       <c r="E30">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="F30" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="G30" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1564,25 +1429,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>822</v>
+        <v>844</v>
       </c>
       <c r="C31">
-        <v>1006</v>
+        <v>1088</v>
       </c>
       <c r="D31" t="s">
         <v>35</v>
       </c>
       <c r="E31">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="F31" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="G31" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1590,25 +1455,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>823</v>
+        <v>845</v>
       </c>
       <c r="C32">
-        <v>1007</v>
+        <v>1102</v>
       </c>
       <c r="D32" t="s">
         <v>36</v>
       </c>
       <c r="E32">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="F32" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="G32" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1616,25 +1481,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>826</v>
+        <v>846</v>
       </c>
       <c r="C33">
-        <v>1020</v>
+        <v>1110</v>
       </c>
       <c r="D33" t="s">
         <v>37</v>
       </c>
       <c r="E33">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="F33" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="G33" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1642,25 +1507,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>830</v>
+        <v>847</v>
       </c>
       <c r="C34">
-        <v>1033</v>
+        <v>1117</v>
       </c>
       <c r="D34" t="s">
         <v>38</v>
       </c>
       <c r="E34">
-        <v>2005</v>
+        <v>1992</v>
       </c>
       <c r="F34" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="G34" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1668,25 +1533,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>831</v>
+        <v>848</v>
       </c>
       <c r="C35">
-        <v>1034</v>
+        <v>1120</v>
       </c>
       <c r="D35" t="s">
         <v>39</v>
       </c>
       <c r="E35">
-        <v>1993</v>
+        <v>2013</v>
       </c>
       <c r="F35" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1694,25 +1559,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>832</v>
+        <v>849</v>
       </c>
       <c r="C36">
-        <v>1035</v>
+        <v>1127</v>
       </c>
       <c r="D36" t="s">
         <v>40</v>
       </c>
       <c r="E36">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="F36" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1720,25 +1585,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>834</v>
+        <v>851</v>
       </c>
       <c r="C37">
-        <v>1053</v>
+        <v>1136</v>
       </c>
       <c r="D37" t="s">
         <v>41</v>
       </c>
       <c r="E37">
-        <v>2011</v>
+        <v>1992</v>
       </c>
       <c r="F37" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1746,25 +1611,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>835</v>
+        <v>853</v>
       </c>
       <c r="C38">
-        <v>1054</v>
+        <v>1166</v>
       </c>
       <c r="D38" t="s">
         <v>42</v>
       </c>
       <c r="E38">
-        <v>2013</v>
+        <v>2005</v>
       </c>
       <c r="F38" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1772,10 +1637,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>836</v>
+        <v>854</v>
       </c>
       <c r="C39">
-        <v>1055</v>
+        <v>1178</v>
       </c>
       <c r="D39" t="s">
         <v>43</v>
@@ -1784,618 +1649,19 @@
         <v>2005</v>
       </c>
       <c r="F39" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>837</v>
-      </c>
-      <c r="C40">
-        <v>1056</v>
-      </c>
-      <c r="D40" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40">
-        <v>2009</v>
-      </c>
-      <c r="F40" t="s">
-        <v>103</v>
-      </c>
-      <c r="G40" t="s">
-        <v>133</v>
-      </c>
-      <c r="H40" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>838</v>
-      </c>
-      <c r="C41">
-        <v>1058</v>
-      </c>
-      <c r="D41" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41">
-        <v>2013</v>
-      </c>
-      <c r="F41" t="s">
-        <v>104</v>
-      </c>
-      <c r="G41" t="s">
-        <v>133</v>
-      </c>
-      <c r="H41" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>839</v>
-      </c>
-      <c r="C42">
-        <v>1060</v>
-      </c>
-      <c r="D42" t="s">
-        <v>45</v>
-      </c>
-      <c r="E42">
-        <v>1995</v>
-      </c>
-      <c r="F42" t="s">
-        <v>105</v>
-      </c>
-      <c r="G42" t="s">
-        <v>133</v>
-      </c>
-      <c r="H42" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>840</v>
-      </c>
-      <c r="C43">
-        <v>1064</v>
-      </c>
-      <c r="D43" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43">
-        <v>2009</v>
-      </c>
-      <c r="F43" t="s">
-        <v>106</v>
-      </c>
-      <c r="G43" t="s">
-        <v>133</v>
-      </c>
-      <c r="H43" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>842</v>
-      </c>
-      <c r="C44">
-        <v>1066</v>
-      </c>
-      <c r="D44" t="s">
-        <v>47</v>
-      </c>
-      <c r="E44">
-        <v>2012</v>
-      </c>
-      <c r="F44" t="s">
-        <v>107</v>
-      </c>
-      <c r="G44" t="s">
-        <v>133</v>
-      </c>
-      <c r="H44" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>843</v>
-      </c>
-      <c r="C45">
-        <v>1086</v>
-      </c>
-      <c r="D45" t="s">
-        <v>48</v>
-      </c>
-      <c r="E45">
-        <v>2014</v>
-      </c>
-      <c r="F45" t="s">
-        <v>108</v>
-      </c>
-      <c r="G45" t="s">
-        <v>133</v>
-      </c>
-      <c r="H45" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>844</v>
-      </c>
-      <c r="C46">
-        <v>1088</v>
-      </c>
-      <c r="D46" t="s">
-        <v>49</v>
-      </c>
-      <c r="E46">
-        <v>2000</v>
-      </c>
-      <c r="F46" t="s">
-        <v>109</v>
-      </c>
-      <c r="G46" t="s">
-        <v>133</v>
-      </c>
-      <c r="H46" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>845</v>
-      </c>
-      <c r="C47">
-        <v>1102</v>
-      </c>
-      <c r="D47" t="s">
-        <v>50</v>
-      </c>
-      <c r="E47">
-        <v>2009</v>
-      </c>
-      <c r="F47" t="s">
-        <v>110</v>
-      </c>
-      <c r="G47" t="s">
-        <v>133</v>
-      </c>
-      <c r="H47" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>846</v>
-      </c>
-      <c r="C48">
-        <v>1110</v>
-      </c>
-      <c r="D48" t="s">
-        <v>51</v>
-      </c>
-      <c r="E48">
-        <v>2001</v>
-      </c>
-      <c r="F48" t="s">
-        <v>111</v>
-      </c>
-      <c r="G48" t="s">
-        <v>133</v>
-      </c>
-      <c r="H48" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>847</v>
-      </c>
-      <c r="C49">
-        <v>1117</v>
-      </c>
-      <c r="D49" t="s">
-        <v>52</v>
-      </c>
-      <c r="E49">
-        <v>1992</v>
-      </c>
-      <c r="F49" t="s">
-        <v>112</v>
-      </c>
-      <c r="G49" t="s">
-        <v>133</v>
-      </c>
-      <c r="H49" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>848</v>
-      </c>
-      <c r="C50">
-        <v>1120</v>
-      </c>
-      <c r="D50" t="s">
-        <v>53</v>
-      </c>
-      <c r="E50">
-        <v>2013</v>
-      </c>
-      <c r="F50" t="s">
-        <v>113</v>
-      </c>
-      <c r="G50" t="s">
-        <v>133</v>
-      </c>
-      <c r="H50" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>849</v>
-      </c>
-      <c r="C51">
-        <v>1127</v>
-      </c>
-      <c r="D51" t="s">
-        <v>54</v>
-      </c>
-      <c r="E51">
-        <v>1998</v>
-      </c>
-      <c r="F51" t="s">
-        <v>114</v>
-      </c>
-      <c r="G51" t="s">
-        <v>133</v>
-      </c>
-      <c r="H51" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>850</v>
-      </c>
-      <c r="C52">
-        <v>1135</v>
-      </c>
-      <c r="D52" t="s">
-        <v>55</v>
-      </c>
-      <c r="E52">
-        <v>2009</v>
-      </c>
-      <c r="F52" t="s">
-        <v>115</v>
-      </c>
-      <c r="G52" t="s">
-        <v>133</v>
-      </c>
-      <c r="H52" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>851</v>
-      </c>
-      <c r="C53">
-        <v>1136</v>
-      </c>
-      <c r="D53" t="s">
-        <v>56</v>
-      </c>
-      <c r="E53">
-        <v>1992</v>
-      </c>
-      <c r="F53" t="s">
-        <v>116</v>
-      </c>
-      <c r="G53" t="s">
-        <v>133</v>
-      </c>
-      <c r="H53" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <v>852</v>
-      </c>
-      <c r="C54">
-        <v>1139</v>
-      </c>
-      <c r="D54" t="s">
-        <v>57</v>
-      </c>
-      <c r="E54">
-        <v>2001</v>
-      </c>
-      <c r="F54" t="s">
-        <v>117</v>
-      </c>
-      <c r="G54" t="s">
-        <v>133</v>
-      </c>
-      <c r="H54" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>853</v>
-      </c>
-      <c r="C55">
-        <v>1166</v>
-      </c>
-      <c r="D55" t="s">
-        <v>58</v>
-      </c>
-      <c r="E55">
-        <v>2005</v>
-      </c>
-      <c r="F55" t="s">
-        <v>118</v>
-      </c>
-      <c r="G55" t="s">
-        <v>133</v>
-      </c>
-      <c r="H55" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <v>854</v>
-      </c>
-      <c r="C56">
-        <v>1178</v>
-      </c>
-      <c r="D56" t="s">
-        <v>59</v>
-      </c>
-      <c r="E56">
-        <v>2005</v>
-      </c>
-      <c r="F56" t="s">
-        <v>119</v>
-      </c>
-      <c r="G56" t="s">
-        <v>133</v>
-      </c>
-      <c r="H56" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57">
-        <v>855</v>
-      </c>
-      <c r="C57">
-        <v>1181</v>
-      </c>
-      <c r="D57" t="s">
-        <v>60</v>
-      </c>
-      <c r="E57">
-        <v>2007</v>
-      </c>
-      <c r="F57" t="s">
-        <v>120</v>
-      </c>
-      <c r="G57" t="s">
-        <v>133</v>
-      </c>
-      <c r="H57" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58">
-        <v>856</v>
-      </c>
-      <c r="C58">
-        <v>1193</v>
-      </c>
-      <c r="D58" t="s">
-        <v>61</v>
-      </c>
-      <c r="E58">
-        <v>2009</v>
-      </c>
-      <c r="F58" t="s">
-        <v>121</v>
-      </c>
-      <c r="G58" t="s">
-        <v>133</v>
-      </c>
-      <c r="H58" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59">
-        <v>857</v>
-      </c>
-      <c r="C59">
-        <v>1201</v>
-      </c>
-      <c r="D59" t="s">
-        <v>62</v>
-      </c>
-      <c r="E59">
-        <v>2004</v>
-      </c>
-      <c r="F59" t="s">
-        <v>122</v>
-      </c>
-      <c r="G59" t="s">
-        <v>133</v>
-      </c>
-      <c r="H59" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <v>858</v>
-      </c>
-      <c r="C60">
-        <v>1203</v>
-      </c>
-      <c r="D60" t="s">
-        <v>63</v>
-      </c>
-      <c r="E60">
-        <v>2005</v>
-      </c>
-      <c r="F60" t="s">
-        <v>123</v>
-      </c>
-      <c r="G60" t="s">
-        <v>133</v>
-      </c>
-      <c r="H60" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61">
-        <v>859</v>
-      </c>
-      <c r="C61">
-        <v>1204</v>
-      </c>
-      <c r="D61" t="s">
-        <v>64</v>
-      </c>
-      <c r="E61">
-        <v>2011</v>
-      </c>
-      <c r="F61" t="s">
-        <v>124</v>
-      </c>
-      <c r="G61" t="s">
-        <v>133</v>
-      </c>
-      <c r="H61" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62">
-        <v>860</v>
-      </c>
-      <c r="C62">
-        <v>1205</v>
-      </c>
-      <c r="D62" t="s">
-        <v>65</v>
-      </c>
-      <c r="E62">
-        <v>2016</v>
-      </c>
-      <c r="F62" t="s">
-        <v>125</v>
-      </c>
-      <c r="G62" t="s">
-        <v>133</v>
-      </c>
-      <c r="H62" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F23" r:id="rId1"/>
-    <hyperlink ref="F24" r:id="rId2"/>
-    <hyperlink ref="F25" r:id="rId3"/>
+    <hyperlink ref="F17" r:id="rId1"/>
+    <hyperlink ref="F18" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tables/spreadsheet_not_found.xlsx
+++ b/tables/spreadsheet_not_found.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="155">
   <si>
     <t>index</t>
   </si>
@@ -37,6 +37,9 @@
     <t>doc_id</t>
   </si>
   <si>
+    <t>Strefler et al.</t>
+  </si>
+  <si>
     <t>Xu, B, Guo, ZD, Piao, SL, Fang, JY</t>
   </si>
   <si>
@@ -64,55 +67,116 @@
     <t>Brown</t>
   </si>
   <si>
+    <t>Kirschbaum, M.U.F., Saggar, S., Tate, K.R., Thakur, K., Giltrap, D.</t>
+  </si>
+  <si>
     <t>Zeman</t>
   </si>
   <si>
     <t>APS/ Socolow</t>
   </si>
   <si>
-    <t>Renforth &amp; Henderson</t>
-  </si>
-  <si>
-    <t>Sarmiento and Orr</t>
+    <t>SEAB</t>
   </si>
   <si>
     <t>Joos et al.</t>
   </si>
   <si>
+    <t>Bakker et al</t>
+  </si>
+  <si>
+    <t>Bozec, Y, Bakker, DCE, Hartmann, C, Thomas, H, Bellerby, RGJ, Nightingale, PD, Riebesell, U, Watson, AJ, de Baar, HJW</t>
+  </si>
+  <si>
+    <t>Boyd et al.</t>
+  </si>
+  <si>
+    <t>Martin et al.</t>
+  </si>
+  <si>
+    <t>Shoji &amp; Jones</t>
+  </si>
+  <si>
+    <t>Sunda et al</t>
+  </si>
+  <si>
+    <t>Lavery, T. J. et al</t>
+  </si>
+  <si>
+    <t>Fennel, K</t>
+  </si>
+  <si>
+    <t>Karl, D.M. and R.M. Letelier</t>
+  </si>
+  <si>
+    <t>Sarthou et al.</t>
+  </si>
+  <si>
+    <t>Bruland et al.</t>
+  </si>
+  <si>
+    <t>Sunda et al.</t>
+  </si>
+  <si>
+    <t>Mašek, Ondrej, Peter Brownsort, Andrew Cross, and Saran Sohi</t>
+  </si>
+  <si>
+    <t>Hori, Masao</t>
+  </si>
+  <si>
+    <t>Arbestain, Marta Camps</t>
+  </si>
+  <si>
+    <t>Hüppi, Roman, Albrecht Neftel, Moritz F. Lehmann, Maike Krauss, Johan Six, and Jens Leifeld</t>
+  </si>
+  <si>
+    <t>Ericsson, Niclas, Cecilia Sundberg, Åke Nordberg, Serina Ahlgren, and Per-Anders Hansson</t>
+  </si>
+  <si>
+    <t>Tek Narayan Maraseni</t>
+  </si>
+  <si>
+    <t>Tek Narayan Maraseni , Guangnan Chen  &amp; Qian Guangren</t>
+  </si>
+  <si>
+    <t>S. Shacley, S. Sohi, R. Ibarrola, J. Hammond, O. Masek, P. Brownsort, A. Cross, M. Prendergast-Miller, S. Haszeldine</t>
+  </si>
+  <si>
+    <t>J. Lehmann, J. Gaunt, M. Rondon</t>
+  </si>
+  <si>
+    <t>D.A Laird, R.C. Brown, J.E. Amonette, J. Lehmann</t>
+  </si>
+  <si>
     <t>Shi, J., Liu, J., Gao, Z., Cui, L. (2005) A review on the influence of afforestation on soil carbon storage</t>
   </si>
   <si>
     <t>Si, J., Jia, L.-M., Wei, Y.-K., Xing, C.-S., Liu, S.-Q., Guo, Z.-X. (2012) Carbon storage in fast-growing and high-yield poplar plantations under subsurface drip irrigation</t>
   </si>
   <si>
-    <t>Ahamer</t>
+    <t>Hoogwijk, M; Hoogwijk, M; Faaij, A; de Vries, B; Turkenburg, W</t>
+  </si>
+  <si>
+    <t>Rogner et al</t>
+  </si>
+  <si>
+    <t>Thraen</t>
+  </si>
+  <si>
+    <t>Cornelissen et al</t>
+  </si>
+  <si>
+    <t>Erb, Karl-Heinz, Andreas Mayer, Fridolin Krausmann, Christian Lauk, Christoph Plutzar, Julia Steinberger, Helmut Haberl</t>
   </si>
   <si>
     <t>Gross, R.; Slade and Bauen</t>
   </si>
   <si>
-    <t>Hoogwijk, M; Hoogwijk, M; Faaij, A; de Vries, B; Turkenburg, W</t>
-  </si>
-  <si>
-    <t>Rogner et al</t>
-  </si>
-  <si>
-    <t>Thraen</t>
-  </si>
-  <si>
-    <t>Battjes</t>
-  </si>
-  <si>
-    <t>Bauen et al</t>
-  </si>
-  <si>
-    <t>Cornelissen et al</t>
-  </si>
-  <si>
-    <t>Haberl et al</t>
-  </si>
-  <si>
-    <t>Ormerod</t>
+    <t>Vera Heck, Dieter Gerten, Wolfgang Lucht, Lena R.Boysen</t>
+  </si>
+  <si>
+    <t>Alexander Popp, Michael Krause, Jan Philipp Dietrich, Hermann Lotze-Campen, Marian Leimbach,
+Tim Beringer, Nico Bauer</t>
   </si>
   <si>
     <t>Vangkilde-Peterson et al</t>
@@ -121,12 +185,6 @@
     <t>HENDRIKS, CA; BLOK, K</t>
   </si>
   <si>
-    <t>IEAGHG - PH3-22</t>
-  </si>
-  <si>
-    <t>IEAGHG</t>
-  </si>
-  <si>
     <t>Gale and Freund</t>
   </si>
   <si>
@@ -142,12 +200,90 @@
     <t>Koide et al</t>
   </si>
   <si>
-    <t>IPCC</t>
-  </si>
-  <si>
     <t>Bentham, M; Kirby, G</t>
   </si>
   <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>unpublished</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>Potential and costs of Carbon Dioxide Removal by Enhanced Weathering of rocks</t>
+  </si>
+  <si>
     <t>Biomass carbon stocks in China’s forests between 2000 and 2050: A prediction based on forest biomass-age relationships</t>
   </si>
   <si>
@@ -175,69 +311,129 @@
     <t>Management of forests for mitigation of greenhouse gases</t>
   </si>
   <si>
+    <t>Quantifying the climate-change consequences of shifting land use between forest and agriculture.</t>
+  </si>
+  <si>
     <t>Zeman, F. S. An Investigation into the Feasibility of Capturing Carbon Dioxide Directly from the Atmosphere. In Proceedings of the 2nd Annual Conference on Carbon Sequestration, 2003.</t>
   </si>
   <si>
     <t>American Physical Society. Direct Air Capture of CO2 with Chemicals: A Technology Assesment for the APS Panel on Public A&lt;U+FB00&gt;airs; APS: 2011.</t>
   </si>
   <si>
-    <t>Assessing ocean alkalinity for carbon sequestration</t>
-  </si>
-  <si>
-    <t>Three-dimensional simulations of the impact of Southern Ocean nutrient depletion on atmospheric CO2 and ocean chemistry</t>
+    <t>SEAB taskforce report on CO2 utilization and negative emission technologies</t>
   </si>
   <si>
     <t>Possible effects of iron fertilization in the Southern Ocean on atmospheric CO2 concentration</t>
   </si>
   <si>
+    <t>Southern Ocean iron enrichment promotes inorganic carbon drawdown</t>
+  </si>
+  <si>
+    <t>The CO2 system in a Redfield context during an iron enrichment experiment in the Southern Ocean</t>
+  </si>
+  <si>
+    <t>The decline and fate of an iron-induced subarctic phytoplank-ton bloom.</t>
+  </si>
+  <si>
+    <t>Iron,primary production and carbon– nitrogen flux studies dur-ing the JGOFS North Atlantic Bloom Experiment.</t>
+  </si>
+  <si>
+    <t>The costing of carbon credits from ocean nourishment plants</t>
+  </si>
+  <si>
+    <t>Iron uptake and growth limitation in oceanic and coastal phytoplankton</t>
+  </si>
+  <si>
+    <t>Iron defecation by sperm whales stimulates carbon export in the Southern Ocean</t>
+  </si>
+  <si>
+    <t>Widespread implementation of controlled upwelling in the North Pacific Subtropical Gyre would counteract diazotrophic N2 fixation.</t>
+  </si>
+  <si>
+    <t>Nitrogen fixation-enhanced carbon sequestration in low nitrate, low chlorophyll seascapes</t>
+  </si>
+  <si>
+    <t>Growth physiology and fate of diatoms in the ocean:a review.</t>
+  </si>
+  <si>
+    <t>Interactive influ-ences of bioactive trace metals on biological production inoceanic waters.</t>
+  </si>
+  <si>
+    <t>VERTEX: phytoplankton/iron studies in the Gulf of Alaska.</t>
+  </si>
+  <si>
+    <t>Iron growth re-quirements in oceanic and coastal phytoplankton.</t>
+  </si>
+  <si>
+    <t>The fate of biogenic ironduring a phytoplankton bloom induced by natural fer-tilization: impact of copepod grazing.</t>
+  </si>
+  <si>
+    <t>INFLUENCE OF BIOCHAR PRODUCTION CONDITIONS ON ITS STRUCTURE, PROPERTIES AND ENVIRONMENTAL STABILITY.</t>
+  </si>
+  <si>
+    <t>Carbon-negative energy system</t>
+  </si>
+  <si>
+    <t>A Biochar Classification System and Associated Test Methods</t>
+  </si>
+  <si>
+    <t>N Use Efficiencies and N 2 O Emissions in Two Contrasting, Biochar Amended Soils under Winter Wheat—cover Crop—sorghum Rotation</t>
+  </si>
+  <si>
+    <t>Time-Dependent Climate Impact and Energy Efficiency of Combined Heat and Power Production from Short-Rotation Coppice Willow Using Pyrolysis or Direct Combustion</t>
+  </si>
+  <si>
+    <t>Biochar: maximising the benefits</t>
+  </si>
+  <si>
+    <t>Towards a faster and broader application of biochar: appropriate marketing mechanisms</t>
+  </si>
+  <si>
+    <t>Chapter 6: Biochar, Tool for Climate Change Mitigation and Soil Management (from Geoengineering Responses to Climate Change: Selected Entries from the Encyclopedia of Sustainability Science and Technology</t>
+  </si>
+  <si>
+    <t>Biochar sequestration in terrestrial ecosystems (A review)</t>
+  </si>
+  <si>
+    <t>Review of the pyrolysis platform for coporducing bio-oil and biochar</t>
+  </si>
+  <si>
     <t>http://dx.doi.org/None</t>
   </si>
   <si>
     <t>https://www.cabdirect.org/cabdirect/abstract/20123156780</t>
   </si>
   <si>
-    <t>Biomass energy production: the Global Potential and the Net Influence on the CO2 Concentration</t>
+    <t>Exploration of regional and global cost-supply curves of biomass energy from short-rotation crops at abandoned cropland and rest land under four IPCC SRES land-use scenarios</t>
+  </si>
+  <si>
+    <t>Chapter 7 - energy resources and potentials. In: Global Energy assessment - Toward a Sustainable future</t>
+  </si>
+  <si>
+    <t>Global biomass potentials – resources, drivers and scenario results</t>
+  </si>
+  <si>
+    <t>the role of bioenergy in a fully sustainable global energy system</t>
+  </si>
+  <si>
+    <t>The interrelations of future global bioenergy potentials, food demand and agricultural technology. In: Gasparatos, Alexandros and Per Stromberg (eds.). Socioeconomic and environmental impacts of biofuels: Evidence from developing nations.</t>
   </si>
   <si>
     <t>Global bioenergy resources</t>
   </si>
   <si>
-    <t>Exploration of regional and global cost-supply curves of biomass energy from short-rotation crops at abandoned cropland and rest land under four IPCC SRES land-use scenarios</t>
-  </si>
-  <si>
-    <t>Chapter 7 - energy resources and potentials. In: Global Energy assessment - Toward a Sustainable future</t>
-  </si>
-  <si>
-    <t>Global biomass potentials – resources, drivers and scenario results</t>
-  </si>
-  <si>
-    <t>Global options for biofuels from plantations according to IMAGE simulations</t>
-  </si>
-  <si>
-    <t>Bioelectricity vision: achieving 15% of electricity from biomass in OECD countries by 2010</t>
-  </si>
-  <si>
-    <t>the role of bioenergy in a fully sustainable global energy system</t>
-  </si>
-  <si>
-    <t>Bioenergy: how much can we expect for 2050?</t>
-  </si>
-  <si>
-    <t>An Overview of large scale CO2 disposal options</t>
-  </si>
-  <si>
-    <t>GeoCapacity Final Report Assessing European Capacity for Geological Storage of Carbon dioxide</t>
+    <t>Is extensive terrestrial carbon dioxide removal a "green" form of geoengineering? A global modelling study</t>
+  </si>
+  <si>
+    <t>Additional CO2 emissions from land use change -- Forest conservation as a  precondition for sustainable production of second generation bioenergy</t>
+  </si>
+  <si>
+    <t>Assessing European capacity for geological storage of carbon dioxide-the EU GeoCapacity project</t>
   </si>
   <si>
     <t>UNDERGROUND-STORAGE OF CARBON-DIOXIDE</t>
   </si>
   <si>
-    <t>Barriers to overcome the implementation of CO2 capture and storage - Storage in disused oil and gas fields</t>
-  </si>
-  <si>
-    <t>CO2 storage in depleted Gas fields</t>
-  </si>
-  <si>
     <t>Coal-bed methane enhancement with CO2 sequestration worldwide potential</t>
   </si>
   <si>
@@ -253,25 +449,25 @@
     <t>Subterranean containment and long-term storage of carbon dioxide in unused aquifers and in depleted natural gas reservoirs</t>
   </si>
   <si>
-    <t>Underground Geological Storage in SRCCS</t>
-  </si>
-  <si>
     <t>CO2 storage in saline aquifers</t>
   </si>
   <si>
+    <t>Enhanced weathering (terrestrial and ocean)</t>
+  </si>
+  <si>
     <t>Afforestation and Reforestation</t>
   </si>
   <si>
     <t>BECCS</t>
   </si>
   <si>
-    <t>DAC</t>
-  </si>
-  <si>
-    <t>Ocean alkalinisation</t>
+    <t>DACCS</t>
   </si>
   <si>
     <t>Ocean fertilization</t>
+  </si>
+  <si>
+    <t>Biochar</t>
   </si>
   <si>
     <t>Soil Carbon Sequestration</t>
@@ -650,7 +846,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -684,25 +880,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="C2">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
-        <v>2010</v>
+      <c r="E2" t="s">
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="H2" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -710,25 +906,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3">
-        <v>2010</v>
+      <c r="E3" t="s">
+        <v>63</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="G3" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="H3" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -736,25 +932,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="C4">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E4">
-        <v>2009</v>
+      <c r="E4" t="s">
+        <v>63</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="G4" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="H4" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -762,25 +958,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="C5">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E5">
-        <v>2006</v>
+      <c r="E5" t="s">
+        <v>64</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="H5" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -788,25 +984,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C6">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6">
-        <v>2003</v>
+      <c r="E6" t="s">
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="H6" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -822,17 +1018,17 @@
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7">
-        <v>2003</v>
+      <c r="E7" t="s">
+        <v>66</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="H7" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -840,25 +1036,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C8">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="E8">
-        <v>2002</v>
+      <c r="E8" t="s">
+        <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="H8" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -866,25 +1062,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="C9">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="E9">
-        <v>2000</v>
+      <c r="E9" t="s">
+        <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="H9" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -892,25 +1088,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C10">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="E10">
-        <v>1996</v>
+      <c r="E10" t="s">
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="H10" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -918,16 +1114,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="C11">
-        <v>282</v>
+        <v>261</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" t="s">
+        <v>97</v>
       </c>
       <c r="G11" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="H11" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -935,25 +1140,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C12">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12">
-        <v>2003</v>
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="G12" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="H12" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -961,25 +1166,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C13">
-        <v>348</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13">
-        <v>2011</v>
-      </c>
-      <c r="F13" t="s">
-        <v>54</v>
+        <v>292</v>
       </c>
       <c r="G13" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="H13" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -987,25 +1183,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="C14">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
       </c>
-      <c r="E14">
-        <v>2017</v>
+      <c r="E14" t="s">
+        <v>66</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="G14" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="H14" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1013,25 +1209,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="C15">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="D15" t="s">
         <v>19</v>
       </c>
-      <c r="E15">
-        <v>1991</v>
+      <c r="E15" t="s">
+        <v>71</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="H15" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1039,25 +1235,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C16">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
       </c>
-      <c r="E16">
-        <v>1991</v>
+      <c r="E16" t="s">
+        <v>72</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="G16" t="s">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="H16" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1065,25 +1261,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>406</v>
+        <v>317</v>
       </c>
       <c r="C17">
-        <v>485</v>
+        <v>395</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
       </c>
-      <c r="E17">
-        <v>2005</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>58</v>
+      <c r="E17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" t="s">
+        <v>102</v>
       </c>
       <c r="G17" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="H17" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1091,25 +1287,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>410</v>
+        <v>323</v>
       </c>
       <c r="C18">
-        <v>494</v>
+        <v>401</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
-      <c r="E18">
-        <v>2012</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>59</v>
+      <c r="E18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" t="s">
+        <v>103</v>
       </c>
       <c r="G18" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="H18" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1117,25 +1313,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>785</v>
+        <v>338</v>
       </c>
       <c r="C19">
-        <v>934</v>
+        <v>418</v>
       </c>
       <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="E19">
-        <v>1996</v>
+      <c r="E19" t="s">
+        <v>75</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="G19" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="H19" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1143,25 +1339,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>792</v>
+        <v>340</v>
       </c>
       <c r="C20">
-        <v>942</v>
+        <v>420</v>
       </c>
       <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="E20">
-        <v>2014</v>
+      <c r="E20" t="s">
+        <v>76</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="G20" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="H20" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1169,25 +1365,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>795</v>
+        <v>341</v>
       </c>
       <c r="C21">
-        <v>949</v>
+        <v>421</v>
       </c>
       <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="E21">
-        <v>2009</v>
+      <c r="E21" t="s">
+        <v>77</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="G21" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="H21" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1195,25 +1391,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>818</v>
+        <v>344</v>
       </c>
       <c r="C22">
-        <v>997</v>
+        <v>426</v>
       </c>
       <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="E22">
-        <v>2012</v>
+      <c r="E22" t="s">
+        <v>74</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="G22" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="H22" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1221,25 +1417,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>820</v>
+        <v>350</v>
       </c>
       <c r="C23">
-        <v>1001</v>
+        <v>433</v>
       </c>
       <c r="D23" t="s">
         <v>27</v>
       </c>
-      <c r="E23">
-        <v>2010</v>
+      <c r="E23" t="s">
+        <v>78</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="G23" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="H23" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1247,25 +1443,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>821</v>
+        <v>355</v>
       </c>
       <c r="C24">
-        <v>1005</v>
+        <v>438</v>
       </c>
       <c r="D24" t="s">
         <v>28</v>
       </c>
-      <c r="E24">
-        <v>1994</v>
+      <c r="E24" t="s">
+        <v>63</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="G24" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="H24" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1273,25 +1469,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>822</v>
+        <v>356</v>
       </c>
       <c r="C25">
-        <v>1006</v>
+        <v>439</v>
       </c>
       <c r="D25" t="s">
         <v>29</v>
       </c>
-      <c r="E25">
-        <v>2004</v>
+      <c r="E25" t="s">
+        <v>79</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="G25" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="H25" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1299,25 +1495,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>823</v>
+        <v>357</v>
       </c>
       <c r="C26">
-        <v>1007</v>
+        <v>440</v>
       </c>
       <c r="D26" t="s">
         <v>30</v>
       </c>
-      <c r="E26">
-        <v>2012</v>
+      <c r="E26" t="s">
+        <v>79</v>
       </c>
       <c r="F26" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="G26" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="H26" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1325,25 +1521,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>824</v>
+        <v>358</v>
       </c>
       <c r="C27">
-        <v>1013</v>
+        <v>441</v>
       </c>
       <c r="D27" t="s">
         <v>31</v>
       </c>
-      <c r="E27">
-        <v>2013</v>
+      <c r="E27" t="s">
+        <v>75</v>
       </c>
       <c r="F27" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G27" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="H27" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1351,25 +1547,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>831</v>
+        <v>359</v>
       </c>
       <c r="C28">
-        <v>1034</v>
+        <v>443</v>
       </c>
       <c r="D28" t="s">
         <v>32</v>
       </c>
-      <c r="E28">
-        <v>1993</v>
+      <c r="E28" t="s">
+        <v>73</v>
       </c>
       <c r="F28" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="G28" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="H28" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1377,25 +1573,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>837</v>
+        <v>360</v>
       </c>
       <c r="C29">
-        <v>1056</v>
+        <v>444</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29">
-        <v>2009</v>
+        <v>25</v>
+      </c>
+      <c r="E29" t="s">
+        <v>80</v>
       </c>
       <c r="F29" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="G29" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="H29" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1403,25 +1599,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>839</v>
+        <v>361</v>
       </c>
       <c r="C30">
-        <v>1060</v>
+        <v>445</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30">
-        <v>1995</v>
+        <v>33</v>
+      </c>
+      <c r="E30" t="s">
+        <v>73</v>
       </c>
       <c r="F30" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="G30" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="H30" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1429,25 +1625,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>844</v>
+        <v>362</v>
       </c>
       <c r="C31">
-        <v>1088</v>
+        <v>449</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31">
-        <v>2000</v>
+        <v>31</v>
+      </c>
+      <c r="E31" t="s">
+        <v>79</v>
       </c>
       <c r="F31" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="G31" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="H31" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1455,25 +1651,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>845</v>
+        <v>442</v>
       </c>
       <c r="C32">
-        <v>1102</v>
+        <v>536</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32">
-        <v>2009</v>
+        <v>34</v>
+      </c>
+      <c r="E32" t="s">
+        <v>81</v>
       </c>
       <c r="F32" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="G32" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="H32" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1481,25 +1677,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>846</v>
+        <v>443</v>
       </c>
       <c r="C33">
-        <v>1110</v>
+        <v>537</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33">
-        <v>2001</v>
+        <v>35</v>
+      </c>
+      <c r="E33" t="s">
+        <v>82</v>
       </c>
       <c r="F33" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="G33" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="H33" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1507,25 +1703,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>847</v>
+        <v>449</v>
       </c>
       <c r="C34">
-        <v>1117</v>
+        <v>543</v>
       </c>
       <c r="D34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34">
-        <v>1992</v>
+        <v>36</v>
       </c>
       <c r="F34" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="G34" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="H34" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1533,25 +1726,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>848</v>
+        <v>452</v>
       </c>
       <c r="C35">
-        <v>1120</v>
+        <v>546</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35">
-        <v>2013</v>
+        <v>37</v>
+      </c>
+      <c r="E35" t="s">
+        <v>72</v>
       </c>
       <c r="F35" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="G35" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="H35" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1559,25 +1752,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>849</v>
+        <v>455</v>
       </c>
       <c r="C36">
-        <v>1127</v>
+        <v>549</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36">
-        <v>1998</v>
+        <v>38</v>
+      </c>
+      <c r="E36" t="s">
+        <v>83</v>
       </c>
       <c r="F36" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="G36" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="H36" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1585,25 +1778,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>851</v>
+        <v>457</v>
       </c>
       <c r="C37">
-        <v>1136</v>
+        <v>551</v>
       </c>
       <c r="D37" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37">
-        <v>1992</v>
+        <v>39</v>
+      </c>
+      <c r="E37" t="s">
+        <v>63</v>
       </c>
       <c r="F37" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="G37" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="H37" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1611,25 +1804,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>853</v>
+        <v>459</v>
       </c>
       <c r="C38">
-        <v>1166</v>
+        <v>553</v>
       </c>
       <c r="D38" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38">
-        <v>2005</v>
+        <v>40</v>
+      </c>
+      <c r="E38" t="s">
+        <v>63</v>
       </c>
       <c r="F38" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="G38" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="H38" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1637,31 +1830,551 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>854</v>
+        <v>460</v>
       </c>
       <c r="C39">
-        <v>1178</v>
+        <v>555</v>
       </c>
       <c r="D39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" t="s">
+        <v>124</v>
+      </c>
+      <c r="G39" t="s">
+        <v>150</v>
+      </c>
+      <c r="H39" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>461</v>
+      </c>
+      <c r="C40">
+        <v>556</v>
+      </c>
+      <c r="D40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" t="s">
+        <v>125</v>
+      </c>
+      <c r="G40" t="s">
+        <v>150</v>
+      </c>
+      <c r="H40" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>462</v>
+      </c>
+      <c r="C41">
+        <v>557</v>
+      </c>
+      <c r="D41" t="s">
         <v>43</v>
       </c>
-      <c r="E39">
-        <v>2005</v>
-      </c>
-      <c r="F39" t="s">
-        <v>80</v>
-      </c>
-      <c r="G39" t="s">
-        <v>88</v>
-      </c>
-      <c r="H39" t="s">
-        <v>89</v>
+      <c r="E41" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" t="s">
+        <v>126</v>
+      </c>
+      <c r="G41" t="s">
+        <v>150</v>
+      </c>
+      <c r="H41" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>465</v>
+      </c>
+      <c r="C42">
+        <v>560</v>
+      </c>
+      <c r="D42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G42" t="s">
+        <v>151</v>
+      </c>
+      <c r="H42" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>469</v>
+      </c>
+      <c r="C43">
+        <v>569</v>
+      </c>
+      <c r="D43" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G43" t="s">
+        <v>151</v>
+      </c>
+      <c r="H43" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>852</v>
+      </c>
+      <c r="C44">
+        <v>1030</v>
+      </c>
+      <c r="D44" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" t="s">
+        <v>64</v>
+      </c>
+      <c r="F44" t="s">
+        <v>129</v>
+      </c>
+      <c r="G44" t="s">
+        <v>152</v>
+      </c>
+      <c r="H44" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>867</v>
+      </c>
+      <c r="C45">
+        <v>1058</v>
+      </c>
+      <c r="D45" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" t="s">
+        <v>130</v>
+      </c>
+      <c r="G45" t="s">
+        <v>152</v>
+      </c>
+      <c r="H45" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>869</v>
+      </c>
+      <c r="C46">
+        <v>1060</v>
+      </c>
+      <c r="D46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46" t="s">
+        <v>131</v>
+      </c>
+      <c r="G46" t="s">
+        <v>152</v>
+      </c>
+      <c r="H46" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>871</v>
+      </c>
+      <c r="C47">
+        <v>1063</v>
+      </c>
+      <c r="D47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" t="s">
+        <v>132</v>
+      </c>
+      <c r="G47" t="s">
+        <v>152</v>
+      </c>
+      <c r="H47" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>876</v>
+      </c>
+      <c r="C48">
+        <v>1081</v>
+      </c>
+      <c r="D48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" t="s">
+        <v>84</v>
+      </c>
+      <c r="F48" t="s">
+        <v>133</v>
+      </c>
+      <c r="G48" t="s">
+        <v>152</v>
+      </c>
+      <c r="H48" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>887</v>
+      </c>
+      <c r="C49">
+        <v>1110</v>
+      </c>
+      <c r="D49" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" t="s">
+        <v>85</v>
+      </c>
+      <c r="F49" t="s">
+        <v>134</v>
+      </c>
+      <c r="G49" t="s">
+        <v>152</v>
+      </c>
+      <c r="H49" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>893</v>
+      </c>
+      <c r="C50">
+        <v>1127</v>
+      </c>
+      <c r="D50" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" t="s">
+        <v>72</v>
+      </c>
+      <c r="F50" t="s">
+        <v>135</v>
+      </c>
+      <c r="G50" t="s">
+        <v>152</v>
+      </c>
+      <c r="H50" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>895</v>
+      </c>
+      <c r="C51">
+        <v>1129</v>
+      </c>
+      <c r="D51" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" t="s">
+        <v>84</v>
+      </c>
+      <c r="F51" t="s">
+        <v>136</v>
+      </c>
+      <c r="G51" t="s">
+        <v>152</v>
+      </c>
+      <c r="H51" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>898</v>
+      </c>
+      <c r="C52">
+        <v>1132</v>
+      </c>
+      <c r="D52" t="s">
+        <v>54</v>
+      </c>
+      <c r="E52" t="s">
+        <v>64</v>
+      </c>
+      <c r="F52" t="s">
+        <v>137</v>
+      </c>
+      <c r="G52" t="s">
+        <v>153</v>
+      </c>
+      <c r="H52" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>905</v>
+      </c>
+      <c r="C53">
+        <v>1157</v>
+      </c>
+      <c r="D53" t="s">
+        <v>55</v>
+      </c>
+      <c r="E53" t="s">
+        <v>78</v>
+      </c>
+      <c r="F53" t="s">
+        <v>138</v>
+      </c>
+      <c r="G53" t="s">
+        <v>153</v>
+      </c>
+      <c r="H53" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>912</v>
+      </c>
+      <c r="C54">
+        <v>1207</v>
+      </c>
+      <c r="D54" t="s">
+        <v>56</v>
+      </c>
+      <c r="E54" t="s">
+        <v>74</v>
+      </c>
+      <c r="F54" t="s">
+        <v>139</v>
+      </c>
+      <c r="G54" t="s">
+        <v>153</v>
+      </c>
+      <c r="H54" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>913</v>
+      </c>
+      <c r="C55">
+        <v>1214</v>
+      </c>
+      <c r="D55" t="s">
+        <v>57</v>
+      </c>
+      <c r="E55" t="s">
+        <v>86</v>
+      </c>
+      <c r="F55" t="s">
+        <v>140</v>
+      </c>
+      <c r="G55" t="s">
+        <v>153</v>
+      </c>
+      <c r="H55" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>914</v>
+      </c>
+      <c r="C56">
+        <v>1217</v>
+      </c>
+      <c r="D56" t="s">
+        <v>58</v>
+      </c>
+      <c r="E56" t="s">
+        <v>70</v>
+      </c>
+      <c r="F56" t="s">
+        <v>141</v>
+      </c>
+      <c r="G56" t="s">
+        <v>153</v>
+      </c>
+      <c r="H56" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>915</v>
+      </c>
+      <c r="C57">
+        <v>1224</v>
+      </c>
+      <c r="D57" t="s">
+        <v>59</v>
+      </c>
+      <c r="E57" t="s">
+        <v>87</v>
+      </c>
+      <c r="F57" t="s">
+        <v>142</v>
+      </c>
+      <c r="G57" t="s">
+        <v>153</v>
+      </c>
+      <c r="H57" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>917</v>
+      </c>
+      <c r="C58">
+        <v>1233</v>
+      </c>
+      <c r="D58" t="s">
+        <v>60</v>
+      </c>
+      <c r="E58" t="s">
+        <v>86</v>
+      </c>
+      <c r="F58" t="s">
+        <v>143</v>
+      </c>
+      <c r="G58" t="s">
+        <v>153</v>
+      </c>
+      <c r="H58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>920</v>
+      </c>
+      <c r="C59">
+        <v>1275</v>
+      </c>
+      <c r="D59" t="s">
+        <v>61</v>
+      </c>
+      <c r="E59" t="s">
+        <v>75</v>
+      </c>
+      <c r="F59" t="s">
+        <v>144</v>
+      </c>
+      <c r="G59" t="s">
+        <v>153</v>
+      </c>
+      <c r="H59" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F17" r:id="rId1"/>
-    <hyperlink ref="F18" r:id="rId2"/>
+    <hyperlink ref="F42" r:id="rId1"/>
+    <hyperlink ref="F43" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
